--- a/statistik_deskriptif_data_understanding.xlsx
+++ b/statistik_deskriptif_data_understanding.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\ML MODEL ANN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5207B9EA-6E30-4C43-9499-8FDAC0F2BABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A8590A-0549-41B8-94E1-BE49F1B51055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASHRAE" sheetId="1" r:id="rId1"/>
-    <sheet name="IoT Day 2" sheetId="3" r:id="rId2"/>
-    <sheet name="IoT Day 1" sheetId="2" r:id="rId3"/>
+    <sheet name="After Pre-process" sheetId="4" r:id="rId2"/>
+    <sheet name="IoT Day 2" sheetId="3" r:id="rId3"/>
+    <sheet name="IoT Day 1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Min</t>
   </si>
@@ -73,13 +74,91 @@
   </si>
   <si>
     <t>hari 2</t>
+  </si>
+  <si>
+    <t>10.80</t>
+  </si>
+  <si>
+    <t>-3.00</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>-0.24</t>
+  </si>
+  <si>
+    <t>-0.35</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>10.46</t>
+  </si>
+  <si>
+    <t>39.99</t>
+  </si>
+  <si>
+    <t>24.40</t>
+  </si>
+  <si>
+    <t>23.99</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>6.40</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>44.72</t>
+  </si>
+  <si>
+    <t>44.80</t>
+  </si>
+  <si>
+    <t>13.42</t>
+  </si>
+  <si>
+    <t>38.90</t>
+  </si>
+  <si>
+    <t>24.29</t>
+  </si>
+  <si>
+    <t>23.70</t>
+  </si>
+  <si>
+    <t>2.84</t>
+  </si>
+  <si>
+    <t>Air_flow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +191,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -121,7 +212,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -144,11 +235,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -166,6 +377,37 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +713,13 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="A1:F6"/>
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -599,11 +844,203 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688E8E36-A8B0-4CC7-A301-E9F8036A4D03}">
+  <dimension ref="B1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="13.88671875" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="17"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,7 +1178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
